--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T17:00:38+00:00</t>
+    <t>2024-03-22T16:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:25:12+00:00</t>
+    <t>2024-04-02T15:41:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -805,7 +805,7 @@
 </t>
   </si>
   <si>
-    <t>Contexte d'usage de la fiche de consignes de saisie de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable ainsi que pottentiellemnt la spécialité ordinale et la profession</t>
+    <t>Contexte d'usage de la fiche de consignes de saisie de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable ainsi que potentiellemnt la spécialité ordinale et la profession</t>
   </si>
   <si>
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
@@ -817,7 +817,7 @@
     <t>Assist in searching for appropriate content.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:useContext.code}
+    <t xml:space="preserve">pattern:code}
 </t>
   </si>
   <si>
@@ -827,18 +827,6 @@
     <t>Definition.useContext</t>
   </si>
   <si>
-    <t>Questionnaire.useContext:catEG</t>
-  </si>
-  <si>
-    <t>catEG</t>
-  </si>
-  <si>
-    <t>Contexte d'usage de la fiche de consignes de saisie afin de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext:catEG.id</t>
-  </si>
-  <si>
     <t>Questionnaire.useContext.id</t>
   </si>
   <si>
@@ -851,9 +839,6 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Questionnaire.useContext:catEG.extension</t>
-  </si>
-  <si>
     <t>Questionnaire.useContext.extension</t>
   </si>
   <si>
@@ -861,9 +846,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext:catEG.code</t>
   </si>
   <si>
     <t>Questionnaire.useContext.code</t>
@@ -880,6 +862,64 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/ValueSet/ror-usage-context-type-vs</t>
+  </si>
+  <si>
+    <t>UsageContext.code</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext.value[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+QuantityRangeReference(PlanDefinition|ResearchStudy|InsurancePlan|HealthcareService|Group|Location|Organization)</t>
+  </si>
+  <si>
+    <t>Value that defines the context</t>
+  </si>
+  <si>
+    <t>A value that defines the context specified in this context of use. The interpretation of the value is defined by the code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A code that defines the specific value for the context being specified.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/use-context</t>
+  </si>
+  <si>
+    <t>UsageContext.value[x]</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catEG</t>
+  </si>
+  <si>
+    <t>catEG</t>
+  </si>
+  <si>
+    <t>Contexte d'usage de la fiche de consignes de saisie afin de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catEG.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catEG.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catEG.code</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -888,53 +928,19 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/ValueSet/ror-usage-context-type-vs</t>
-  </si>
-  <si>
-    <t>UsageContext.code</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+    <t>A code that specifies a type of context being specified by a usage context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/usage-context-type</t>
   </si>
   <si>
     <t>Questionnaire.useContext:catEG.value[x]</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext.value[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-QuantityRangeReference(PlanDefinition|ResearchStudy|InsurancePlan|HealthcareService|Group|Location|Organization)</t>
-  </si>
-  <si>
-    <t>Value that defines the context</t>
-  </si>
-  <si>
-    <t>A value that defines the context specified in this context of use. The interpretation of the value is defined by the code.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code that defines the specific value for the context being specified.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/use-context</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
   <si>
-    <t>UsageContext.value[x]</t>
-  </si>
-  <si>
     <t>Questionnaire.useContext:catEG.value[x]:valueCodeableConcept</t>
   </si>
   <si>
@@ -971,7 +977,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R288-TypeProfession/FHIR/TRE-R288-TypeProfession"/&gt;
-  &lt;code value="PS"/&gt;
+  &lt;code value="P01"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
@@ -1980,7 +1986,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO84"/>
+  <dimension ref="A1:AO88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2016,7 +2022,7 @@
     <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="96.27734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="188.67578125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4864,20 +4870,18 @@
         <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4886,23 +4890,19 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4950,25 +4950,25 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4982,21 +4982,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -5008,15 +5008,17 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5053,37 +5055,37 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5097,21 +5099,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5120,19 +5122,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>270</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5158,49 +5160,47 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>101</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5209,15 +5209,15 @@
         <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5240,17 +5240,15 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5260,7 +5258,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5275,11 +5273,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5297,7 +5297,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5315,7 +5315,7 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>282</v>
+        <v>108</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5324,17 +5324,19 @@
         <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5355,16 +5357,20 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5388,35 +5394,37 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>99</v>
@@ -5425,10 +5433,10 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5442,14 +5450,12 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5461,22 +5467,22 @@
         <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5503,11 +5509,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5525,19 +5533,19 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5557,16 +5565,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5582,23 +5588,21 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>136</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5634,19 +5638,19 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5658,13 +5662,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5678,10 +5682,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5689,7 +5693,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
@@ -5701,18 +5705,20 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5722,7 +5728,7 @@
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5737,13 +5743,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5761,25 +5767,25 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5788,26 +5794,26 @@
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5816,20 +5822,18 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5854,23 +5858,21 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5878,25 +5880,25 @@
         <v>141</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5910,24 +5912,26 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
@@ -5936,17 +5940,15 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5956,7 +5958,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -5971,11 +5973,11 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5993,7 +5995,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -6011,7 +6013,7 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>282</v>
+        <v>108</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6020,26 +6022,28 @@
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6051,16 +6055,20 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6084,35 +6092,37 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>99</v>
@@ -6121,10 +6131,10 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6138,14 +6148,12 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6157,22 +6165,22 @@
         <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6199,11 +6207,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6221,19 +6231,19 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6253,16 +6263,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6278,23 +6286,21 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>136</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6330,19 +6336,19 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6354,13 +6360,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6374,10 +6380,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6385,7 +6391,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -6397,18 +6403,20 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6418,7 +6426,7 @@
         <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>80</v>
@@ -6433,13 +6441,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6457,25 +6465,25 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6484,26 +6492,26 @@
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6512,20 +6520,18 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6550,23 +6556,21 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6574,25 +6578,25 @@
         <v>141</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6606,24 +6610,26 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6632,17 +6638,15 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6652,7 +6656,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -6667,11 +6671,11 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6689,7 +6693,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6707,7 +6711,7 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>282</v>
+        <v>108</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6716,26 +6720,28 @@
         <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6747,16 +6753,20 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6780,35 +6790,37 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>99</v>
@@ -6817,10 +6829,10 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6834,14 +6846,12 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6853,22 +6863,22 @@
         <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6895,11 +6905,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6917,19 +6929,19 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6949,14 +6961,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6972,19 +6984,19 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>324</v>
+        <v>138</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7010,31 +7022,31 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7046,13 +7058,13 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -7061,15 +7073,15 @@
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7077,7 +7089,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
@@ -7089,19 +7101,19 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7112,7 +7124,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7127,13 +7139,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7151,10 +7163,10 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>87</v>
@@ -7166,35 +7178,35 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>87</v>
@@ -7206,23 +7218,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7246,34 +7254,32 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>87</v>
@@ -7285,16 +7291,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7302,12 +7308,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7325,20 +7333,18 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7363,13 +7369,11 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7387,10 +7391,10 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>87</v>
@@ -7402,16 +7406,16 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>349</v>
+        <v>108</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7419,10 +7423,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7433,32 +7437,30 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7482,13 +7484,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7506,13 +7508,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
@@ -7521,27 +7523,27 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>356</v>
+        <v>173</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7555,29 +7557,27 @@
         <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>358</v>
+        <v>245</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7637,41 +7637,41 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>363</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>165</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7680,22 +7680,22 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7720,13 +7720,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7744,13 +7744,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
@@ -7759,27 +7759,27 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7790,7 +7790,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>88</v>
@@ -7802,16 +7802,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7861,31 +7861,31 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>378</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>379</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -7893,10 +7893,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7910,7 +7910,7 @@
         <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
@@ -7919,16 +7919,20 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7976,7 +7980,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7985,22 +7989,22 @@
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>108</v>
+        <v>358</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8008,44 +8012,46 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8081,89 +8087,89 @@
         <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>143</v>
+        <v>365</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>147</v>
+        <v>371</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8188,13 +8194,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8212,7 +8218,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8224,13 +8230,13 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>101</v>
+        <v>374</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8239,15 +8245,15 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8255,13 +8261,13 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8270,20 +8276,18 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8331,25 +8335,25 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>380</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>381</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8363,10 +8367,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8380,7 +8384,7 @@
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
@@ -8389,20 +8393,16 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>395</v>
+        <v>261</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>394</v>
+        <v>263</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8459,16 +8459,16 @@
         <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>399</v>
+        <v>108</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8482,21 +8482,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8508,20 +8508,18 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>136</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8545,31 +8543,31 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>400</v>
+        <v>266</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8578,16 +8576,16 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>378</v>
+        <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>372</v>
+        <v>101</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8596,50 +8594,50 @@
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>409</v>
+        <v>138</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>410</v>
+        <v>147</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8688,25 +8686,25 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>411</v>
+        <v>101</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8720,10 +8718,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8731,7 +8729,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>87</v>
@@ -8749,15 +8747,17 @@
         <v>168</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8805,10 +8805,10 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>87</v>
@@ -8823,7 +8823,7 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>250</v>
+        <v>395</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8837,10 +8837,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8848,13 +8848,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
@@ -8863,19 +8863,19 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8900,13 +8900,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8924,10 +8924,10 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>87</v>
@@ -8942,7 +8942,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8956,10 +8956,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8970,31 +8970,31 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>374</v>
+        <v>268</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9019,13 +9019,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -9043,7 +9043,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9052,16 +9052,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>380</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>429</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9070,19 +9070,19 @@
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9104,13 +9104,17 @@
         <v>168</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>265</v>
+        <v>409</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9158,7 +9162,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>267</v>
+        <v>407</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9167,16 +9171,16 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>108</v>
+        <v>413</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9190,21 +9194,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9216,16 +9220,16 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>136</v>
+        <v>415</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>270</v>
+        <v>416</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>138</v>
+        <v>417</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9263,37 +9267,37 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>271</v>
+        <v>414</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9307,45 +9311,45 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>138</v>
+        <v>421</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>147</v>
+        <v>422</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9370,13 +9374,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9394,25 +9398,25 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9426,10 +9430,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9437,33 +9441,35 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9511,25 +9517,25 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>431</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9543,10 +9549,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9554,7 +9560,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9569,17 +9575,15 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>438</v>
+        <v>261</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9604,13 +9608,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9628,25 +9632,25 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>437</v>
+        <v>263</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>423</v>
+        <v>108</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9660,21 +9664,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9686,15 +9690,17 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>444</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>445</v>
+        <v>136</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9719,49 +9725,49 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>443</v>
+        <v>266</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>449</v>
+        <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9775,44 +9781,46 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>452</v>
+        <v>388</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9836,13 +9844,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -9860,25 +9868,25 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>455</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9892,10 +9900,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9903,13 +9911,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
@@ -9918,24 +9926,22 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q68" t="s" s="2">
-        <v>460</v>
-      </c>
+      <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9979,16 +9985,16 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>461</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>100</v>
@@ -9997,7 +10003,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10011,10 +10017,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10022,7 +10028,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>87</v>
@@ -10037,26 +10043,22 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q69" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10076,13 +10078,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>80</v>
+        <v>444</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10100,16 +10102,16 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>461</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>100</v>
@@ -10118,7 +10120,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10132,10 +10134,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10143,7 +10145,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>87</v>
@@ -10158,20 +10160,16 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>206</v>
+        <v>446</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10195,13 +10193,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10219,16 +10217,16 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>100</v>
@@ -10237,7 +10235,7 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10251,10 +10249,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10277,16 +10275,16 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>475</v>
+        <v>110</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10312,13 +10310,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10336,7 +10334,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10345,7 +10343,7 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>100</v>
@@ -10354,7 +10352,7 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10363,15 +10361,15 @@
         <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10394,22 +10392,24 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>481</v>
+        <v>206</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="R72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10462,7 +10462,7 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>100</v>
@@ -10471,7 +10471,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10485,10 +10485,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10499,7 +10499,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10511,22 +10511,26 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>374</v>
+        <v>206</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="R73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10570,16 +10574,16 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>100</v>
@@ -10588,7 +10592,7 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10602,10 +10606,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10628,16 +10632,20 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>265</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10685,7 +10693,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>267</v>
+        <v>470</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10694,16 +10702,16 @@
         <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>108</v>
+        <v>425</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10717,21 +10725,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -10743,16 +10751,16 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>477</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>136</v>
+        <v>478</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>138</v>
+        <v>480</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10790,90 +10798,88 @@
         <v>80</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>271</v>
+        <v>476</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>99</v>
+        <v>481</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>135</v>
+        <v>483</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>385</v>
+        <v>484</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>386</v>
+        <v>485</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10921,25 +10927,25 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>387</v>
+        <v>482</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>99</v>
+        <v>487</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -10953,10 +10959,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10964,10 +10970,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -10979,16 +10985,16 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>494</v>
+        <v>376</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11014,13 +11020,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11038,16 +11044,16 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>99</v>
+        <v>487</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>100</v>
@@ -11056,7 +11062,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11070,10 +11076,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11096,24 +11102,20 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>499</v>
+        <v>261</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q78" t="s" s="2">
-        <v>502</v>
-      </c>
+      <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11157,7 +11159,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>498</v>
+        <v>263</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11166,16 +11168,16 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>423</v>
+        <v>108</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11189,14 +11191,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11215,20 +11217,18 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>504</v>
+        <v>136</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>505</v>
+        <v>265</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11264,19 +11264,19 @@
         <v>80</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>503</v>
+        <v>266</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11285,16 +11285,16 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>508</v>
+        <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11308,42 +11308,46 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>265</v>
+        <v>387</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11391,25 +11395,25 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11423,21 +11427,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11449,16 +11453,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>135</v>
+        <v>496</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>136</v>
+        <v>497</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>270</v>
+        <v>498</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>138</v>
+        <v>499</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11484,49 +11488,49 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>271</v>
+        <v>495</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11540,50 +11544,50 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>385</v>
+        <v>501</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>386</v>
+        <v>502</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="R82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11627,25 +11631,25 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>387</v>
+        <v>500</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11659,10 +11663,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11670,10 +11674,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -11685,18 +11689,20 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>513</v>
+        <v>376</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11720,13 +11726,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -11744,16 +11750,16 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>99</v>
+        <v>510</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>100</v>
@@ -11762,7 +11768,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11776,10 +11782,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11790,7 +11796,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -11802,20 +11808,16 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>518</v>
+        <v>261</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -11863,38 +11865,510 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AG84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH84" t="s" s="2">
+      <c r="N87" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI84" t="s" s="2">
+      <c r="H88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AJ84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL84" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AM84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO84" t="s" s="2">
+      <c r="P88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO88" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO84">
+  <autoFilter ref="A1:AO88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11904,7 +12378,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T15:41:03+00:00</t>
+    <t>2024-04-02T16:06:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T16:06:43+00:00</t>
+    <t>2024-04-10T16:04:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -628,7 +628,7 @@
     <t>Questionnaire.status</t>
   </si>
   <si>
-    <t>draft | active | retired | unknown</t>
+    <t>Statut de la fiche</t>
   </si>
   <si>
     <t>The status of this questionnaire. Enables tracking the life-cycle of the content.</t>
@@ -733,7 +733,7 @@
     <t>Questionnaire.publisher</t>
   </si>
   <si>
-    <t>Nom de l'éditeur: Etablissement ou personne</t>
+    <t>Nom de l'éditeur del a fiche: Etablissement ou personne</t>
   </si>
   <si>
     <t>The name of the organization or individual that published the questionnaire.</t>
@@ -1056,7 +1056,7 @@
     <t>Questionnaire.purpose</t>
   </si>
   <si>
-    <t>Why this questionnaire is defined</t>
+    <t>Pourquoi cette fiche est-il défini</t>
   </si>
   <si>
     <t>Explanation of why this questionnaire is needed and why it has been designed as it has.</t>
@@ -1242,7 +1242,7 @@
     <t>Questionnaire.item.linkId</t>
   </si>
   <si>
-    <t>Unique id for item in questionnaire</t>
+    <t>Unique id pour l'item de la fiche</t>
   </si>
   <si>
     <t>An identifier that is unique within the Questionnaire allowing linkage to the equivalent item in a QuestionnaireResponse resource.</t>
@@ -1322,7 +1322,7 @@
     <t>Questionnaire.item.text</t>
   </si>
   <si>
-    <t>Primary text for the item</t>
+    <t>Texte pour l'item</t>
   </si>
   <si>
     <t>The name of a section, the text of a question or text content for a display item.</t>
@@ -1334,7 +1334,7 @@
     <t>Questionnaire.item.type</t>
   </si>
   <si>
-    <t>group | display | boolean | decimal | integer | date | dateTime +</t>
+    <t>Ti=ype de l'item group | display | boolean | decimal | integer | date | dateTime ...</t>
   </si>
   <si>
     <t>The type of questionnaire item this is - whether text for display, a grouping of other items or a particular type of data to be captured (string, integer, coded choice, etc.).</t>
@@ -1358,7 +1358,7 @@
     <t>Questionnaire.item.enableWhen</t>
   </si>
   <si>
-    <t>Only allow data when</t>
+    <t>Item autorisé / disponible que sous condition</t>
   </si>
   <si>
     <t>A constraint indicating that this item should only be enabled (displayed/allow answers to be captured) when the specified condition is true.</t>
@@ -1477,7 +1477,7 @@
     <t>Questionnaire.item.repeats</t>
   </si>
   <si>
-    <t>Whether the item may repeat</t>
+    <t>Si l'item peut de répeter</t>
   </si>
   <si>
     <t>An indication, if true, that the item may occur multiple times in the response, collecting multiple answers for questions or multiple sets of answers for groups.</t>
@@ -1497,7 +1497,7 @@
     <t>Questionnaire.item.readOnly</t>
   </si>
   <si>
-    <t>Don't allow human editing</t>
+    <t>En lecture seule</t>
   </si>
   <si>
     <t>An indication, when true, that the value cannot be changed by a human respondent to the Questionnaire.</t>
@@ -1556,7 +1556,7 @@
     <t>Questionnaire.item.answerOption</t>
   </si>
   <si>
-    <t>Permitted answer</t>
+    <t>Réponses permises</t>
   </si>
   <si>
     <t>One of the permitted answers for a "choice" or "open-choice" question.</t>
@@ -1593,7 +1593,7 @@
     <t>Questionnaire.item.answerOption.initialSelected</t>
   </si>
   <si>
-    <t>Whether option is selected by default</t>
+    <t>Option de réponse sélectionnée par défaut</t>
   </si>
   <si>
     <t>Indicates whether the answer value is selected when the list of possible answers is initially shown.</t>
@@ -1608,7 +1608,7 @@
     <t>Questionnaire.item.initial</t>
   </si>
   <si>
-    <t>Initial value(s) when item is first rendered</t>
+    <t>Valeur(s) initiale(s)</t>
   </si>
   <si>
     <t>One or more values that should be pre-populated in the answer when initially rendering the questionnaire for user input.</t>
@@ -7557,7 +7557,7 @@
         <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
@@ -9092,7 +9092,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9211,7 +9211,7 @@
         <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
@@ -9447,7 +9447,7 @@
         <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>88</v>
@@ -10266,7 +10266,7 @@
         <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
@@ -10502,7 +10502,7 @@
         <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>80</v>
@@ -10623,7 +10623,7 @@
         <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>80</v>
@@ -10976,7 +10976,7 @@
         <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>80</v>
@@ -11561,7 +11561,7 @@
         <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>80</v>
@@ -11680,7 +11680,7 @@
         <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>80</v>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T16:04:08+00:00</t>
+    <t>2024-04-11T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:28:17+00:00</t>
+    <t>2024-04-11T09:33:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:33:38+00:00</t>
+    <t>2024-05-03T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T15:00:21+00:00</t>
+    <t>2024-05-13T08:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T08:42:46+00:00</t>
+    <t>2024-05-13T09:06:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T09:06:15+00:00</t>
+    <t>2024-05-15T15:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-ballot-1</t>
+    <t>0.4.0-qa-preview-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:09:55+00:00</t>
+    <t>2024-05-16T12:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-qa-preview-1</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T12:22:44+00:00</t>
+    <t>2024-05-16T15:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T15:07:59+00:00</t>
+    <t>2024-05-16T17:06:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T17:06:23+00:00</t>
+    <t>2024-05-17T07:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:43:07+00:00</t>
+    <t>2024-05-17T08:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T08:22:30+00:00</t>
+    <t>2024-05-17T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:21:28+00:00</t>
+    <t>2024-05-17T14:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T14:16:22+00:00</t>
+    <t>2024-05-22T08:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0-snapshot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:14:33+00:00</t>
+    <t>2024-05-23T14:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:06+00:00</t>
+    <t>2024-07-02T15:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T15:46:36+00:00</t>
+    <t>2024-07-09T07:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T07:30:06+00:00</t>
+    <t>2024-07-09T09:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:01:38+00:00</t>
+    <t>2024-07-09T09:29:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:29:20+00:00</t>
+    <t>2024-07-09T14:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T14:18:56+00:00</t>
+    <t>2024-09-13T14:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T14:28:16+00:00</t>
+    <t>2024-10-07T14:01:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1251,7 +1251,7 @@
     <t>This ''can'' be a meaningful identifier (e.g. a LOINC code) but is not intended to have any meaning.  GUIDs or sequential numbers are appropriate here.</t>
   </si>
   <si>
-    <t>[QuestionnaireResponse](questionnaireresponse.html#) does not require omitted items to be included and may have some items that repeat, so linkage based on position alone is not sufficient.</t>
+    <t>[QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html#) does not require omitted items to be included and may have some items that repeat, so linkage based on position alone is not sufficient.</t>
   </si>
   <si>
     <t>.id</t>
@@ -1273,7 +1273,7 @@
 * options (ElementDefinition.binding).</t>
   </si>
   <si>
-    <t>The uri refers to an ElementDefinition in a [StructureDefinition](structuredefinition.html#) and always starts with the [canonical URL](http://hl7.org/fhir/R4/references.html#canonical) for the target resource. When referring to a StructureDefinition, a fragment identifier is used to specify the element definition by its id [Element.id](http://hl7.org/fhir/R4/element-definitions.html#Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x]. In the absence of a fragment identifier, the first/root element definition in the target is the matching element definition.</t>
+    <t>The uri refers to an ElementDefinition in a [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) and always starts with the [canonical URL](http://hl7.org/fhir/R4/references.html#canonical) for the target resource. When referring to a StructureDefinition, a fragment identifier is used to specify the element definition by its id [Element.id](http://hl7.org/fhir/R4/element-definitions.html#Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x]. In the absence of a fragment identifier, the first/root element definition in the target is the matching element definition.</t>
   </si>
   <si>
     <t>A common pattern is to define a set of data elements and then build multiple questionnaires for different circumstances to gather the data. This element provides traceability to the common definition and allows the content for the question to come from the underlying definition.</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T14:01:40+00:00</t>
+    <t>2024-10-08T07:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T07:48:52+00:00</t>
+    <t>2024-10-23T09:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T09:49:13+00:00</t>
+    <t>2024-12-02T10:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T10:17:54+00:00</t>
+    <t>2024-12-04T15:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T15:03:14+00:00</t>
+    <t>2024-12-05T09:03:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-2</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T09:03:52+00:00</t>
+    <t>2024-12-09T11:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:05:44+00:00</t>
+    <t>2024-12-09T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:19:41+00:00</t>
+    <t>2024-12-09T12:55:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T12:55:38+00:00</t>
+    <t>2024-12-09T13:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:16:30+00:00</t>
+    <t>2024-12-09T13:44:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:44:46+00:00</t>
+    <t>2024-12-09T13:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:53:32+00:00</t>
+    <t>2024-12-09T14:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:43:44+00:00</t>
+    <t>2024-12-10T08:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:40:22+00:00</t>
+    <t>2024-12-10T08:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:43:17+00:00</t>
+    <t>2024-12-10T08:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:45:21+00:00</t>
+    <t>2024-12-16T09:17:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:17:42+00:00</t>
+    <t>2024-12-16T09:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:21:00+00:00</t>
+    <t>2024-12-16T09:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:28:29+00:00</t>
+    <t>2024-12-16T09:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:31:22+00:00</t>
+    <t>2024-12-16T09:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:34:54+00:00</t>
+    <t>2024-12-16T09:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:49:25+00:00</t>
+    <t>2024-12-16T09:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:53:18+00:00</t>
+    <t>2024-12-16T10:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:03:27+00:00</t>
+    <t>2024-12-16T10:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:04:41+00:00</t>
+    <t>2024-12-16T10:07:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:07:45+00:00</t>
+    <t>2024-12-16T10:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:11:58+00:00</t>
+    <t>2024-12-16T10:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:18:50+00:00</t>
+    <t>2024-12-16T10:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:19:28+00:00</t>
+    <t>2024-12-16T10:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:26:01+00:00</t>
+    <t>2025-01-22T15:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="536">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T15:00:55+00:00</t>
+    <t>2025-01-28T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -805,7 +805,7 @@
 </t>
   </si>
   <si>
-    <t>Contexte d'usage de la fiche de consignes de saisie de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable ainsi que potentiellemnt la spécialité ordinale et la profession</t>
+    <t>Contexte d'usage de la fiche de consignes de saisie de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable ainsi que potentiellemnt la spécialité ordinale, la profession et ou le domaine de l'offre</t>
   </si>
   <si>
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
@@ -821,7 +821,7 @@
 </t>
   </si>
   <si>
-    <t>Slicing pour définir les différents contextes d'usage de la fiche afin de pouvoir catégoriser ces fiches de consignes par : catégorie d'EG (obligatoire), Spécialité ordinale (optionnel) et profession (optionnel)</t>
+    <t>Slicing pour définir les différents contextes d'usage de la fiche afin de pouvoir catégoriser ces fiches de consignes par : catégorie d'EG (obligatoire), Spécialité ordinale (optionnel), profession (optionnel) et domaine (optionnel)</t>
   </si>
   <si>
     <t>Definition.useContext</t>
@@ -1027,6 +1027,39 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J210-SpecialiteOrdinale-ROR/FHIR/JDV-J210-SpecialiteOrdinale-ROR</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catChampAct</t>
+  </si>
+  <si>
+    <t>catChampAct</t>
+  </si>
+  <si>
+    <t>Contexte d'usage de la fiche de consignes de saisie afin de spécifier le domaine (champ d'activité) dans lequel s'inscrit l'offre saisie</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catChampAct.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catChampAct.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catChampAct.code</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/usage-context-ror-codesystem"/&gt;
+  &lt;code value="champAct"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catChampAct.value[x]</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catChampAct.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J20-ChampActivite-ROR/FHIR/JDV-J20-ChampActivite-ROR</t>
   </si>
   <si>
     <t>Questionnaire.jurisdiction</t>
@@ -1334,7 +1367,7 @@
     <t>Questionnaire.item.type</t>
   </si>
   <si>
-    <t>Ti=ype de l'item group | display | boolean | decimal | integer | date | dateTime ...</t>
+    <t>Type de l'item group | display | boolean | decimal | integer | date | dateTime ...</t>
   </si>
   <si>
     <t>The type of questionnaire item this is - whether text for display, a grouping of other items or a particular type of data to be captured (string, integer, coded choice, etc.).</t>
@@ -1986,7 +2019,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO88"/>
+  <dimension ref="A1:AO94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2023,7 +2056,7 @@
     <col min="26" max="26" width="96.27734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="188.67578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="208.4453125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
@@ -5931,7 +5964,7 @@
         <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
@@ -6629,7 +6662,7 @@
         <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -7327,7 +7360,7 @@
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7426,9 +7459,11 @@
         <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7449,18 +7484,20 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7484,13 +7521,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7508,7 +7545,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7523,7 +7560,7 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>173</v>
@@ -7535,15 +7572,15 @@
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7557,7 +7594,7 @@
         <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
@@ -7566,17 +7603,15 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7625,7 +7660,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7634,22 +7669,22 @@
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7657,21 +7692,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>339</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7683,20 +7718,18 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7732,43 +7765,43 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7776,10 +7809,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7787,31 +7820,31 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>268</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7822,7 +7855,7 @@
         <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>80</v>
@@ -7837,13 +7870,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7861,10 +7894,10 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>87</v>
@@ -7876,27 +7909,27 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>352</v>
+        <v>277</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7904,35 +7937,31 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7956,34 +7985,32 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>87</v>
@@ -7995,16 +8022,16 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8012,12 +8039,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8029,7 +8058,7 @@
         <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -8038,20 +8067,16 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>279</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8075,13 +8100,11 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8099,10 +8122,10 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>284</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
@@ -8111,30 +8134,30 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>365</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8145,7 +8168,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8157,20 +8180,18 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8194,13 +8215,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8218,7 +8239,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8233,10 +8254,10 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>374</v>
+        <v>173</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8245,15 +8266,15 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>276</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8264,7 +8285,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>88</v>
@@ -8276,16 +8297,16 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>376</v>
+        <v>245</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8335,31 +8356,31 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>380</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>381</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8367,14 +8388,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8393,16 +8414,20 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8450,7 +8475,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8459,22 +8484,22 @@
         <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8482,24 +8507,24 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -8508,16 +8533,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>135</v>
+        <v>356</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>138</v>
+        <v>359</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8555,43 +8580,43 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>101</v>
+        <v>361</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8599,45 +8624,45 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>356</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>138</v>
+        <v>365</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>147</v>
+        <v>366</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8686,31 +8711,31 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>101</v>
+        <v>368</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8718,10 +8743,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8729,34 +8754,34 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>168</v>
+        <v>370</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8805,10 +8830,10 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>87</v>
@@ -8817,30 +8842,30 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>375</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>395</v>
+        <v>173</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8851,31 +8876,31 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K59" t="s" s="2">
-        <v>103</v>
+        <v>268</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>399</v>
+        <v>271</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8900,13 +8925,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8924,13 +8949,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>99</v>
@@ -8942,7 +8967,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8951,15 +8976,15 @@
         <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8970,10 +8995,10 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
@@ -8982,20 +9007,18 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>268</v>
+        <v>386</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9019,13 +9042,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -9043,7 +9066,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9052,16 +9075,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>391</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9070,19 +9093,19 @@
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9092,7 +9115,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9104,17 +9127,13 @@
         <v>168</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>409</v>
+        <v>261</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9162,7 +9181,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>407</v>
+        <v>263</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9171,16 +9190,16 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>413</v>
+        <v>108</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9194,24 +9213,24 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
@@ -9220,16 +9239,16 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>415</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>416</v>
+        <v>265</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>417</v>
+        <v>138</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9267,37 +9286,37 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>414</v>
+        <v>266</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9311,45 +9330,45 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>422</v>
+        <v>147</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9374,13 +9393,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9398,25 +9417,25 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>425</v>
+        <v>101</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9430,10 +9449,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9441,34 +9460,34 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>376</v>
+        <v>168</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9517,25 +9536,25 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>431</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9549,10 +9568,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9566,7 +9585,7 @@
         <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
@@ -9575,16 +9594,20 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>261</v>
+        <v>407</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9632,7 +9655,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>263</v>
+        <v>406</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9641,16 +9664,16 @@
         <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>108</v>
+        <v>411</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9664,21 +9687,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9690,18 +9713,20 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>136</v>
+        <v>413</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>265</v>
+        <v>414</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9725,31 +9750,31 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>266</v>
+        <v>412</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9758,16 +9783,16 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>101</v>
+        <v>384</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9776,50 +9801,50 @@
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>138</v>
+        <v>421</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>147</v>
+        <v>422</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9868,25 +9893,25 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>101</v>
+        <v>423</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9900,10 +9925,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9911,13 +9936,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
@@ -9929,13 +9954,13 @@
         <v>168</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9985,10 +10010,10 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>87</v>
@@ -10003,7 +10028,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10017,10 +10042,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10046,15 +10071,17 @@
         <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10081,10 +10108,10 @@
         <v>199</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10102,7 +10129,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>87</v>
@@ -10120,7 +10147,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10134,10 +10161,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10145,31 +10172,35 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10193,13 +10224,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10217,25 +10248,25 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>451</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>441</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10249,10 +10280,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10266,7 +10297,7 @@
         <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
@@ -10275,17 +10306,15 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>453</v>
+        <v>261</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10310,13 +10339,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10334,7 +10363,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>452</v>
+        <v>263</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10343,16 +10372,16 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>425</v>
+        <v>108</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10366,24 +10395,24 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
@@ -10392,24 +10421,22 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>459</v>
+        <v>136</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>460</v>
+        <v>265</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>461</v>
+        <v>138</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q72" t="s" s="2">
-        <v>462</v>
-      </c>
+      <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10441,37 +10468,37 @@
         <v>80</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>458</v>
+        <v>266</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>463</v>
+        <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>425</v>
+        <v>101</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10485,52 +10512,50 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I73" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>465</v>
+        <v>397</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>466</v>
+        <v>398</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>467</v>
+        <v>138</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>468</v>
+        <v>147</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q73" t="s" s="2">
-        <v>469</v>
-      </c>
+      <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10574,25 +10599,25 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>464</v>
+        <v>399</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>463</v>
+        <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>425</v>
+        <v>101</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10606,10 +10631,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10617,13 +10642,13 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>80</v>
@@ -10632,20 +10657,18 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10693,16 +10716,16 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>475</v>
+        <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>100</v>
@@ -10711,7 +10734,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10725,10 +10748,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10736,7 +10759,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>87</v>
@@ -10751,16 +10774,16 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>477</v>
+        <v>110</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10786,13 +10809,13 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -10810,16 +10833,16 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>481</v>
+        <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>100</v>
@@ -10828,7 +10851,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10837,15 +10860,15 @@
         <v>80</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10853,13 +10876,13 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>80</v>
@@ -10868,17 +10891,15 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10903,13 +10924,13 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -10927,16 +10948,16 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>100</v>
@@ -10945,7 +10966,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -10959,10 +10980,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10973,7 +10994,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>88</v>
@@ -10985,16 +11006,16 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>376</v>
+        <v>110</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11020,13 +11041,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11044,16 +11065,16 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>100</v>
@@ -11062,7 +11083,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11076,10 +11097,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11093,7 +11114,7 @@
         <v>87</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
@@ -11102,20 +11123,24 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>261</v>
+        <v>469</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="R78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11159,7 +11184,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>263</v>
+        <v>468</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11168,16 +11193,16 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>108</v>
+        <v>435</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11191,24 +11216,24 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>
@@ -11217,22 +11242,26 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>136</v>
+        <v>475</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>265</v>
+        <v>476</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="R79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11264,37 +11293,37 @@
         <v>80</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>266</v>
+        <v>474</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>99</v>
+        <v>473</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>101</v>
+        <v>435</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11308,45 +11337,45 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>387</v>
+        <v>481</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>138</v>
+        <v>483</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>147</v>
+        <v>484</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11395,25 +11424,25 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>389</v>
+        <v>480</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>99</v>
+        <v>485</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>101</v>
+        <v>435</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11427,10 +11456,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11438,7 +11467,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>87</v>
@@ -11453,16 +11482,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11488,13 +11517,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -11512,16 +11541,16 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>99</v>
+        <v>491</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>100</v>
@@ -11530,7 +11559,7 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11539,15 +11568,15 @@
         <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11570,24 +11599,22 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>206</v>
+        <v>493</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q82" t="s" s="2">
-        <v>504</v>
-      </c>
+      <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11631,7 +11658,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11640,7 +11667,7 @@
         <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>99</v>
+        <v>497</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>100</v>
@@ -11649,7 +11676,7 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11663,10 +11690,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11689,20 +11716,18 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11750,7 +11775,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11759,7 +11784,7 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>100</v>
@@ -11768,7 +11793,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11782,10 +11807,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11897,10 +11922,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12014,14 +12039,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12043,10 +12068,10 @@
         <v>135</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>138</v>
@@ -12101,7 +12126,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12133,10 +12158,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12159,16 +12184,16 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12197,10 +12222,10 @@
         <v>281</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
@@ -12218,7 +12243,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>87</v>
@@ -12236,7 +12261,7 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12250,10 +12275,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12264,111 +12289,817 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q88" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="H88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K88" t="s" s="2">
+      <c r="H89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH88" t="s" s="2">
+      <c r="L94" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI88" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO88" t="s" s="2">
+      <c r="AI94" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO94" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO88">
+  <autoFilter ref="A1:AO94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12378,7 +13109,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T15:58:19+00:00</t>
+    <t>2025-03-03T10:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -926,12 +926,6 @@
   &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R67-TypeStructure-EJ-EG/FHIR/TRE-R67-TypeStructure-EJ-EG"/&gt;
   &lt;code value="EG"/&gt;
 &lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>A code that specifies a type of context being specified by a usage context.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/usage-context-type</t>
   </si>
   <si>
     <t>Questionnaire.useContext:catEG.value[x]</t>
@@ -5778,11 +5772,9 @@
       <c r="X32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5832,7 +5824,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>277</v>
@@ -5903,7 +5895,7 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
@@ -5945,13 +5937,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>277</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>80</v>
@@ -5973,10 +5965,10 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>280</v>
@@ -6010,7 +6002,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6060,13 +6052,13 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
@@ -6091,7 +6083,7 @@
         <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>254</v>
@@ -6181,7 +6173,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>260</v>
@@ -6296,7 +6288,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>264</v>
@@ -6413,7 +6405,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>267</v>
@@ -6459,7 +6451,7 @@
         <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>80</v>
@@ -6476,11 +6468,9 @@
       <c r="X38" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6530,7 +6520,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>277</v>
@@ -6601,7 +6591,7 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
@@ -6643,13 +6633,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>277</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>80</v>
@@ -6671,10 +6661,10 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>280</v>
@@ -6708,7 +6698,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6758,13 +6748,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
@@ -6789,7 +6779,7 @@
         <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>254</v>
@@ -6879,7 +6869,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>260</v>
@@ -6994,7 +6984,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>264</v>
@@ -7111,7 +7101,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>267</v>
@@ -7157,7 +7147,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7174,11 +7164,9 @@
       <c r="X44" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7228,7 +7216,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>277</v>
@@ -7299,7 +7287,7 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
@@ -7341,13 +7329,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>277</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
@@ -7369,10 +7357,10 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>280</v>
@@ -7406,7 +7394,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7456,13 +7444,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
@@ -7487,7 +7475,7 @@
         <v>252</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>254</v>
@@ -7577,7 +7565,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>260</v>
@@ -7692,7 +7680,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>264</v>
@@ -7809,7 +7797,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>267</v>
@@ -7855,7 +7843,7 @@
         <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>80</v>
@@ -7872,11 +7860,9 @@
       <c r="X50" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7926,7 +7912,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>277</v>
@@ -7997,7 +7983,7 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
@@ -8039,13 +8025,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>277</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>80</v>
@@ -8067,7 +8053,7 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>279</v>
@@ -8104,7 +8090,7 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8154,10 +8140,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8180,16 +8166,16 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8218,10 +8204,10 @@
         <v>272</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8239,7 +8225,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8254,7 +8240,7 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>173</v>
@@ -8266,15 +8252,15 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8300,13 +8286,13 @@
         <v>245</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8356,7 +8342,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8371,13 +8357,13 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>165</v>
@@ -8388,14 +8374,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8417,16 +8403,16 @@
         <v>245</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8475,7 +8461,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8490,7 +8476,7 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>173</v>
@@ -8507,10 +8493,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8533,16 +8519,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8592,7 +8578,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8607,10 +8593,10 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8624,10 +8610,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8650,19 +8636,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8711,7 +8697,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8726,10 +8712,10 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8743,10 +8729,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8769,19 +8755,19 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8830,7 +8816,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8842,10 +8828,10 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>173</v>
@@ -8857,15 +8843,15 @@
         <v>165</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8891,16 +8877,16 @@
         <v>268</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>271</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8928,10 +8914,10 @@
         <v>281</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8949,7 +8935,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8967,7 +8953,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8981,10 +8967,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9007,16 +8993,16 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9066,7 +9052,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9075,16 +9061,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9098,10 +9084,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9213,10 +9199,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9330,14 +9316,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9359,10 +9345,10 @@
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>138</v>
@@ -9417,7 +9403,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9449,10 +9435,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9478,16 +9464,16 @@
         <v>168</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9536,7 +9522,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
@@ -9554,7 +9540,7 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9568,10 +9554,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9597,16 +9583,16 @@
         <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9655,7 +9641,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9673,7 +9659,7 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9687,10 +9673,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9716,16 +9702,16 @@
         <v>268</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9753,10 +9739,10 @@
         <v>281</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9774,7 +9760,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9783,7 +9769,7 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>100</v>
@@ -9792,7 +9778,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9806,14 +9792,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9835,16 +9821,16 @@
         <v>168</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9893,7 +9879,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9911,7 +9897,7 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9925,10 +9911,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9954,13 +9940,13 @@
         <v>168</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10010,7 +9996,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10042,10 +10028,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10071,16 +10057,16 @@
         <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10108,10 +10094,10 @@
         <v>199</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10129,7 +10115,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>87</v>
@@ -10147,7 +10133,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10161,10 +10147,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10187,19 +10173,19 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10248,7 +10234,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10260,13 +10246,13 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10280,10 +10266,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10395,10 +10381,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10512,14 +10498,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10541,10 +10527,10 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>138</v>
@@ -10599,7 +10585,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10631,10 +10617,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10660,13 +10646,13 @@
         <v>168</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10716,7 +10702,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>87</v>
@@ -10734,7 +10720,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10748,10 +10734,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10777,13 +10763,13 @@
         <v>110</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10812,10 +10798,10 @@
         <v>199</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -10833,7 +10819,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>87</v>
@@ -10851,7 +10837,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10865,10 +10851,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10891,13 +10877,13 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10927,37 +10913,37 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI76" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>100</v>
@@ -10966,7 +10952,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -10980,10 +10966,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11009,13 +10995,13 @@
         <v>110</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11044,11 +11030,11 @@
         <v>199</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z77" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11065,7 +11051,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11074,7 +11060,7 @@
         <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>100</v>
@@ -11083,7 +11069,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11097,10 +11083,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11126,20 +11112,20 @@
         <v>206</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q78" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>80</v>
@@ -11184,7 +11170,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11193,7 +11179,7 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>100</v>
@@ -11202,7 +11188,7 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11216,10 +11202,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11245,23 +11231,23 @@
         <v>206</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="P79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q79" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="O79" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q79" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="R79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11305,7 +11291,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11314,7 +11300,7 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>100</v>
@@ -11323,7 +11309,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11337,10 +11323,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11366,16 +11352,16 @@
         <v>206</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N80" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11424,7 +11410,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11433,7 +11419,7 @@
         <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>100</v>
@@ -11442,7 +11428,7 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11456,10 +11442,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11482,16 +11468,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11541,7 +11527,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11550,7 +11536,7 @@
         <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>100</v>
@@ -11559,7 +11545,7 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11573,10 +11559,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11599,16 +11585,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11658,7 +11644,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11667,7 +11653,7 @@
         <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>100</v>
@@ -11676,7 +11662,7 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11690,10 +11676,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11716,16 +11702,16 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11775,7 +11761,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11784,7 +11770,7 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>100</v>
@@ -11793,7 +11779,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11807,10 +11793,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11922,10 +11908,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12039,14 +12025,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12068,10 +12054,10 @@
         <v>135</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>138</v>
@@ -12126,7 +12112,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12158,10 +12144,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12184,16 +12170,16 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12222,10 +12208,10 @@
         <v>281</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
@@ -12243,7 +12229,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>87</v>
@@ -12261,7 +12247,7 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12275,10 +12261,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12304,20 +12290,20 @@
         <v>206</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q88" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>80</v>
@@ -12362,7 +12348,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12380,7 +12366,7 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
@@ -12394,10 +12380,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12420,19 +12406,19 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -12481,7 +12467,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12490,7 +12476,7 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>100</v>
@@ -12499,7 +12485,7 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
@@ -12513,10 +12499,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12628,10 +12614,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12745,14 +12731,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12774,10 +12760,10 @@
         <v>135</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>138</v>
@@ -12832,7 +12818,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12864,10 +12850,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12890,16 +12876,16 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12928,10 +12914,10 @@
         <v>281</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -12949,7 +12935,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>87</v>
@@ -12967,7 +12953,7 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12981,10 +12967,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13010,16 +12996,16 @@
         <v>81</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13068,7 +13054,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13077,7 +13063,7 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>80</v>
@@ -13086,7 +13072,7 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:17:50+00:00</t>
+    <t>2025-03-03T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:20:03+00:00</t>
+    <t>2025-03-03T17:10:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T17:10:11+00:00</t>
+    <t>2025-03-07T13:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T13:29:09+00:00</t>
+    <t>2025-03-10T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0-snapshot-1</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10T14:14:07+00:00</t>
+    <t>2025-03-13T17:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T17:00:51+00:00</t>
+    <t>2025-03-13T21:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T21:07:49+00:00</t>
+    <t>2025-03-14T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:18:51+00:00</t>
+    <t>2025-03-14T08:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:31:00+00:00</t>
+    <t>2025-03-14T08:36:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:36:00+00:00</t>
+    <t>2025-03-14T08:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:58:55+00:00</t>
+    <t>2025-03-14T09:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T09:23:47+00:00</t>
+    <t>2025-03-17T13:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:12:35+00:00</t>
+    <t>2025-03-18T09:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T09:01:13+00:00</t>
+    <t>2025-03-27T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T16:26:35+00:00</t>
+    <t>2025-06-04T09:55:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2022,17 +2022,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.48046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.77734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.97265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2041,27 +2041,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="96.27734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="208.4453125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.99609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="82.5390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="178.70703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="125.9375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="48.05859375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="107.96875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="41.19921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="53.91015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:55:05+00:00</t>
+    <t>2025-06-10T08:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T08:02:33+00:00</t>
+    <t>2025-07-17T08:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T08:38:04+00:00</t>
+    <t>2025-07-17T09:53:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T09:53:53+00:00</t>
+    <t>2025-07-17T13:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T13:53:21+00:00</t>
+    <t>2025-07-17T14:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:29:52+00:00</t>
+    <t>2025-07-17T15:27:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:27:59+00:00</t>
+    <t>2025-07-17T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:32:30+00:00</t>
+    <t>2025-07-25T09:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:27:54+00:00</t>
+    <t>2025-07-28T16:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T16:37:17+00:00</t>
+    <t>2025-07-29T14:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T14:46:28+00:00</t>
+    <t>2025-07-29T15:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T15:03:53+00:00</t>
+    <t>2025-07-30T08:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2022,17 +2022,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.15234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.48046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.16796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.97265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.77734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2041,27 +2041,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.99609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="82.5390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="178.70703125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.04296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="96.27734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="208.4453125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="107.96875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="41.19921875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="53.91015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="125.9375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="48.05859375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="62.87890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:54:50+00:00</t>
+    <t>2025-07-30T09:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T09:38:37+00:00</t>
+    <t>2025-10-16T15:18:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.7.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T15:18:57+00:00</t>
+    <t>2025-10-17T13:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:18:06+00:00</t>
+    <t>2025-10-17T13:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:49:18+00:00</t>
+    <t>2026-01-19T14:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T14:25:36+00:00</t>
+    <t>2026-01-20T13:10:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/main/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T13:10:13+00:00</t>
+    <t>2026-01-21T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
